--- a/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,87</t>
+          <t>0,0; 10,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 29,62</t>
+          <t>3,22; 28,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,81</t>
+          <t>0,0; 6,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,2</t>
+          <t>0,0; 7,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,73</t>
+          <t>1,63; 14,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,11</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,26</t>
+          <t>0,0; 7,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 8,9</t>
+          <t>1,45; 8,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 7,56</t>
+          <t>1,27; 7,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,45; 6,52</t>
+          <t>0,5; 6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,51</t>
+          <t>1,72; 7,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,29</t>
+          <t>0,5; 4,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,22</t>
+          <t>1,75; 7,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 5,1</t>
+          <t>1,34; 4,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,84</t>
+          <t>1,45; 5,74</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,8</t>
+          <t>1,23; 5,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,14</t>
+          <t>2,07; 6,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,55</t>
+          <t>1,32; 4,46</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 10,57</t>
+          <t>2,76; 10,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,98; 10,46</t>
+          <t>2,69; 10,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,49; 13,27</t>
+          <t>5,1; 12,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 17,1</t>
+          <t>7,1; 18,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,81</t>
+          <t>3,84; 10,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,3; 6,97</t>
+          <t>2,56; 6,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,2</t>
+          <t>1,99; 6,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 11,55</t>
+          <t>5,33; 11,45</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,91</t>
+          <t>4,18; 8,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,02; 6,96</t>
+          <t>3,19; 7,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 8,17</t>
+          <t>4,18; 8,4</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,92; 12,86</t>
+          <t>6,96; 12,58</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 18,14</t>
+          <t>6,61; 17,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,27; 11,15</t>
+          <t>3,32; 11,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 10,3</t>
+          <t>1,9; 9,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 20,87</t>
+          <t>6,11; 19,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,49</t>
+          <t>3,53; 11,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 6,0</t>
+          <t>1,03; 6,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,28</t>
+          <t>2,92; 9,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,65; 18,51</t>
+          <t>8,51; 17,88</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 12,14</t>
+          <t>5,71; 11,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,22</t>
+          <t>2,55; 7,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,86</t>
+          <t>3,29; 7,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>8,61; 16,25</t>
+          <t>9,01; 16,88</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,63; 13,75</t>
+          <t>5,33; 13,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 12,65</t>
+          <t>4,03; 12,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 16,2</t>
+          <t>7,26; 16,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,02; 14,41</t>
+          <t>6,36; 14,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,58</t>
+          <t>2,21; 6,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 8,67</t>
+          <t>3,26; 8,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 13,39</t>
+          <t>5,87; 13,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,22; 16,31</t>
+          <t>9,24; 16,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,33</t>
+          <t>4,3; 8,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,51; 8,95</t>
+          <t>4,19; 8,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 12,96</t>
+          <t>7,3; 13,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,6; 13,78</t>
+          <t>8,57; 13,92</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,44</t>
+          <t>5,14; 9,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,95</t>
+          <t>3,94; 7,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,36</t>
+          <t>5,64; 9,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,01</t>
+          <t>6,98; 11,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,92</t>
+          <t>3,95; 6,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,13</t>
+          <t>2,82; 5,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,36</t>
+          <t>4,4; 7,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,22</t>
+          <t>7,65; 11,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,12</t>
+          <t>4,89; 7,2</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,61</t>
+          <t>3,6; 5,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,68</t>
+          <t>5,34; 7,57</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 10,74</t>
+          <t>7,88; 10,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,94</t>
+          <t>0,0; 12,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 28,68</t>
+          <t>3,47; 28,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,69</t>
+          <t>0,0; 7,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 14,74</t>
+          <t>1,66; 14,38</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,02</t>
+          <t>0,0; 6,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,56</t>
+          <t>1,45; 8,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,27; 7,33</t>
+          <t>1,3; 6,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 7,78</t>
+          <t>1,33; 7,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,69</t>
+          <t>0,5; 4,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,41</t>
+          <t>1,88; 7,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,74</t>
+          <t>1,44; 5,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,12</t>
+          <t>1,42; 4,97</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,1</t>
+          <t>2,06; 6,05</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,22</t>
+          <t>2,68; 10,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 10,41</t>
+          <t>2,56; 10,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,96</t>
+          <t>5,33; 12,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 10,51</t>
+          <t>3,99; 10,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,94</t>
+          <t>2,4; 6,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,99; 6,44</t>
+          <t>1,91; 6,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,75</t>
+          <t>4,32; 9,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 7,26</t>
+          <t>3,04; 7,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 8,4</t>
+          <t>3,96; 8,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 17,77</t>
+          <t>5,9; 17,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 11,51</t>
+          <t>3,14; 11,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 9,6</t>
+          <t>2,09; 9,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 11,24</t>
+          <t>3,98; 11,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,53</t>
+          <t>1,24; 6,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,92; 9,09</t>
+          <t>2,89; 9,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 11,97</t>
+          <t>5,83; 11,9</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,12</t>
+          <t>2,55; 7,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,84</t>
+          <t>3,2; 7,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,33; 13,24</t>
+          <t>5,4; 13,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,03; 12,25</t>
+          <t>3,73; 11,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 16,47</t>
+          <t>7,57; 16,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,21; 6,52</t>
+          <t>2,22; 6,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,56</t>
+          <t>3,29; 9,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,08</t>
+          <t>5,76; 13,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 8,38</t>
+          <t>4,12; 8,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 8,74</t>
+          <t>4,28; 8,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,14</t>
+          <t>7,54; 13,07</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,46</t>
+          <t>5,37; 9,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,71</t>
+          <t>4,11; 7,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,39</t>
+          <t>5,63; 9,58</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,79</t>
+          <t>3,84; 6,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,15</t>
+          <t>2,75; 5,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,14</t>
+          <t>4,49; 7,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,2</t>
+          <t>4,83; 7,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,61</t>
+          <t>3,54; 5,63</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,57</t>
+          <t>5,26; 7,48</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,16%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>0; 1,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0; 1,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,03</t>
+          <t>0,0; 5,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>0; 1,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,47; 28,51</t>
+          <t>0,35; 9,9</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,01</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,49</t>
+          <t>0,0; 2,43</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,14</t>
+          <t>0; 0,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 14,38</t>
+          <t>0,52; 4,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,19</t>
+          <t>0,0; 0,94</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,67%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>0,55%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,25</t>
+          <t>0,0; 1,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 8,52</t>
+          <t>0,35; 2,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,81</t>
+          <t>0,35; 2,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 6,78</t>
+          <t>0,09; 1,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,39</t>
+          <t>0,48; 2,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,32</t>
+          <t>0,17; 1,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,49</t>
+          <t>0,67; 2,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,34; 4,97</t>
+          <t>0,33; 1,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 5,64</t>
+          <t>0,34; 1,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,97</t>
+          <t>0,36; 1,49</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,05</t>
+          <t>0,65; 2,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,32; 4,46</t>
+          <t>0,28; 0,97</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,72%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,28%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 10,26</t>
+          <t>0,6; 2,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 10,14</t>
+          <t>0,64; 2,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 12,9</t>
+          <t>1,35; 3,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,1; 18,21</t>
+          <t>1,32; 3,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,12</t>
+          <t>1,28; 3,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,4; 6,9</t>
+          <t>0,86; 2,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,52</t>
+          <t>0,66; 2,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 11,45</t>
+          <t>1,19; 2,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 9,0</t>
+          <t>1,09; 2,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,25</t>
+          <t>0,88; 2,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,35</t>
+          <t>1,24; 2,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,96; 12,58</t>
+          <t>1,42; 2,7</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>2,29%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 17,08</t>
+          <t>1,33; 3,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,14; 11,39</t>
+          <t>0,68; 2,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 9,49</t>
+          <t>0,44; 2,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,11; 19,84</t>
+          <t>1,23; 4,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 11,17</t>
+          <t>1,08; 3,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,35</t>
+          <t>0,37; 1,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,89; 9,09</t>
+          <t>1,04; 2,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 17,88</t>
+          <t>1,45; 3,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 11,9</t>
+          <t>1,45; 3,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,55; 7,03</t>
+          <t>0,72; 1,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 7,86</t>
+          <t>0,9; 2,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,01; 16,88</t>
+          <t>1,57; 3,26</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,35%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,57%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>5,63%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,79%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 13,41</t>
+          <t>1,07; 2,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 11,63</t>
+          <t>0,81; 2,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,46</t>
+          <t>1,8; 3,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,36; 14,12</t>
+          <t>1,36; 3,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 6,87</t>
+          <t>0,72; 2,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 9,12</t>
+          <t>1,05; 2,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,16</t>
+          <t>1,69; 3,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,24; 16,71</t>
+          <t>2,72; 4,95</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,34</t>
+          <t>1,08; 2,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,68</t>
+          <t>1,09; 2,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,54; 13,07</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,57; 13,92</t>
+          <t>2,3; 3,79</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,29</t>
+          <t>1,05; 1,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,65</t>
+          <t>0,92; 1,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,58</t>
+          <t>1,39; 2,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,84</t>
+          <t>1,38; 2,42</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,82</t>
+          <t>1,22; 2,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,09</t>
+          <t>0,86; 1,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,34</t>
+          <t>1,43; 2,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,17</t>
+          <t>1,81; 2,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,26</t>
+          <t>1,26; 1,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,63</t>
+          <t>0,99; 1,55</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,48</t>
+          <t>1,54; 2,18</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,84</t>
+          <t>1,72; 2,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>0,5%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>0,29; 1,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,7</t>
+          <t>0,29; 1,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>0,07; 0,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,37</t>
+          <t>0,53; 2,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,94</t>
+          <t>0,14; 1,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 9,9</t>
+          <t>0,96; 3,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,33; 1,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,43</t>
+          <t>0,33; 1,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,87</t>
+          <t>0,3; 1,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,72</t>
+          <t>0,82; 2,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,94</t>
+          <t>0,26; 0,86</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,07%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,6; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,13</t>
+          <t>0,64; 2,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,03</t>
+          <t>1,35; 3,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,15</t>
+          <t>0,82; 2,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,28</t>
+          <t>1,28; 3,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,46</t>
+          <t>0,86; 2,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,92</t>
+          <t>0,66; 2,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,21</t>
+          <t>1,18; 2,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,35</t>
+          <t>1,09; 2,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,49</t>
+          <t>0,88; 2,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,01</t>
+          <t>1,24; 2,57</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 0,97</t>
+          <t>1,17; 2,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,48%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,14%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,01%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,73%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>2,14%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,09%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>1,49%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,62%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,37%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,16</t>
+          <t>1,33; 3,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,56</t>
+          <t>0,68; 2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,42</t>
+          <t>0,44; 2,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,43</t>
+          <t>1,25; 4,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,32</t>
+          <t>1,08; 3,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,41</t>
+          <t>0,37; 1,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,22</t>
+          <t>1,04; 2,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,66</t>
+          <t>0,9; 3,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,31</t>
+          <t>1,45; 3,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,06</t>
+          <t>0,72; 1,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,57</t>
+          <t>0,9; 2,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,7</t>
+          <t>1,32; 3,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,91%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,89</t>
+          <t>1,07; 2,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,7</t>
+          <t>0,81; 2,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,31</t>
+          <t>1,8; 3,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,09</t>
+          <t>1,36; 3,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,25</t>
+          <t>0,72; 2,15</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,93</t>
+          <t>1,05; 2,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,97</t>
+          <t>1,69; 3,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,48</t>
+          <t>2,53; 4,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,07</t>
+          <t>1,08; 2,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,98</t>
+          <t>1,09; 2,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,13</t>
+          <t>1,92; 3,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,26</t>
+          <t>2,26; 3,81</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,9</t>
+          <t>1,05; 1,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,42</t>
+          <t>0,92; 1,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,94</t>
+          <t>1,39; 2,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,33</t>
+          <t>1,24; 2,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,15</t>
+          <t>1,22; 2,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,81</t>
+          <t>0,86; 1,62</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,88</t>
+          <t>1,43; 2,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 4,95</t>
+          <t>1,71; 2,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,25</t>
+          <t>1,26; 1,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,29</t>
+          <t>0,99; 1,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,47</t>
+          <t>1,54; 2,18</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 3,79</t>
+          <t>1,6; 2,33</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,28%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,82%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,24%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,26%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,26%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,84%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>2,05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 1,94</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,92; 1,81</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,39</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,38; 2,42</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 2,1</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,86; 1,62</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,43; 2,37</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,81; 2,79</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 1,87</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,99; 1,55</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 2,18</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,41</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,57 +725,57 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,89</t>
+          <t>0,3; 1,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,71</t>
+          <t>0,28; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,99</t>
+          <t>0,07; 1,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,15</t>
+          <t>0,52; 2,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 1,18</t>
+          <t>0,14; 1,4</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,29</t>
+          <t>0,93; 3,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,16</t>
+          <t>0,33; 1,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,27</t>
+          <t>0,37; 1,21</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,21</t>
+          <t>0,37; 1,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,1</t>
+          <t>0,74; 2,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,16</t>
+          <t>0,63; 2,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,56</t>
+          <t>0,63; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,42</t>
+          <t>1,4; 3,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,94</t>
+          <t>0,84; 3,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,32</t>
+          <t>1,27; 3,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,41</t>
+          <t>0,86; 2,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,22</t>
+          <t>0,67; 2,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,63</t>
+          <t>1,18; 2,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,31</t>
+          <t>1,07; 2,35</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,06</t>
+          <t>0,91; 2,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,57</t>
+          <t>1,19; 2,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,52</t>
+          <t>1,12; 2,49</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,89</t>
+          <t>1,36; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,7</t>
+          <t>0,79; 2,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,31</t>
+          <t>0,48; 2,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 4,2</t>
+          <t>1,25; 4,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,25</t>
+          <t>1,15; 3,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,93</t>
+          <t>0,37; 1,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,97</t>
+          <t>0,95; 2,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,14</t>
+          <t>1,04; 3,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,07</t>
+          <t>1,43; 2,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,98</t>
+          <t>0,67; 1,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,13</t>
+          <t>0,91; 2,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,06</t>
+          <t>1,31; 3,1</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,9</t>
+          <t>1,07; 2,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,42</t>
+          <t>0,81; 2,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 3,94</t>
+          <t>1,68; 3,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,36; 3,33</t>
+          <t>1,38; 3,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,15</t>
+          <t>0,69; 2,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,81</t>
+          <t>1,06; 2,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 3,88</t>
+          <t>1,72; 3,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,93</t>
+          <t>2,58; 4,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,25</t>
+          <t>1,08; 2,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,29</t>
+          <t>1,11; 2,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,47</t>
+          <t>1,99; 3,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,81</t>
+          <t>2,28; 3,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,94</t>
+          <t>1,04; 1,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,81</t>
+          <t>0,92; 1,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,39</t>
+          <t>1,35; 2,36</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,32</t>
+          <t>1,24; 2,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,1</t>
+          <t>1,22; 2,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,62</t>
+          <t>0,91; 1,66</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,37</t>
+          <t>1,47; 2,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,7</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,87</t>
+          <t>1,25; 1,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,55</t>
+          <t>1,02; 1,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,18</t>
+          <t>1,52; 2,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,33</t>
+          <t>1,58; 2,31</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico privado en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6196</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5053</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7884</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>3154</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>12256</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4261</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9840</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>9351</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17309</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6524</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7811</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2128; 12747</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1909; 10750</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>456; 6482</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3549; 14719</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>993; 9670</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6188; 21576</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2197; 8067</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5052; 16779</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>5105; 17978</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9886; 26993</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3436; 11208</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>10977</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12709</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>22796</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21228</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>20235</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>15237</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12924</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17136</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31213</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27945</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>35720</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>38364</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6048; 21091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6385; 24377</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>14219; 35208</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9991; 36082</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>12265; 32600</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8865; 25673</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6971; 22080</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>11265; 24928</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20600; 45357</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18537; 41844</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>24366; 50867</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24158; 53625</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15922</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11146</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8628</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15939</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13717</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6939</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13549</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>19033</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29639</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18085</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22176</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34973</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9192; 27627</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5919; 20736</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3657; 17855</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8821; 29352</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7842; 23794</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2863; 14455</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7426; 22397</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>9667; 30462</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>19479; 40497</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>10257; 28498</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14036; 34611</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>21520; 50796</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>17618</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13573</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>25061</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19976</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13310</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18292</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>26660</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>38824</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>30928</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>31865</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>51721</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>58801</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>10088; 26788</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7641; 23814</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>15717; 36411</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12783; 30293</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>7180; 21403</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11057; 30849</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>17845; 39618</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>28252; 51540</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>21314; 43525</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>21908; 45319</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>39248; 68800</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>46050; 74402</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>46473</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43624</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61538</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>59406</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55146</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>43622</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>65388</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>79255</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>101619</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>87246</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>126926</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>138661</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>33859; 61432</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>31342; 60654</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>45609; 79830</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>42980; 80472</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>41338; 71712</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32042; 58504</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>51758; 86960</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>61378; 95841</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>83093; 122514</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>70533; 111291</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>104946; 153876</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>112788; 164489</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>